--- a/data/pca/factorExposure/factorExposure_2010-07-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-30.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.009146130913248828</v>
+        <v>-0.01653668675819134</v>
       </c>
       <c r="C2">
-        <v>0.001237641559591978</v>
+        <v>-0.001078508105373963</v>
       </c>
       <c r="D2">
-        <v>0.006747217195617041</v>
+        <v>0.005722882467970952</v>
       </c>
       <c r="E2">
-        <v>0.00641586940596635</v>
+        <v>-0.002514066975951274</v>
       </c>
       <c r="F2">
-        <v>-0.01461916120378571</v>
+        <v>-0.01289984364233915</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1112205639821573</v>
+        <v>-0.09664127665569185</v>
       </c>
       <c r="C4">
-        <v>-0.0787808809029735</v>
+        <v>-0.0191129763239676</v>
       </c>
       <c r="D4">
-        <v>0.005282808882226838</v>
+        <v>0.0721148237652649</v>
       </c>
       <c r="E4">
-        <v>0.1563031433590222</v>
+        <v>0.02671156161217656</v>
       </c>
       <c r="F4">
-        <v>-0.03291102953055677</v>
+        <v>0.04047702641628374</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1281263731846299</v>
+        <v>-0.1491037186896764</v>
       </c>
       <c r="C6">
-        <v>-0.04929387903692222</v>
+        <v>-0.02400604448632119</v>
       </c>
       <c r="D6">
-        <v>-0.005081628666806278</v>
+        <v>-0.01576820490483761</v>
       </c>
       <c r="E6">
-        <v>0.05115508153817643</v>
+        <v>0.01166565117936865</v>
       </c>
       <c r="F6">
-        <v>0.05923676392207008</v>
+        <v>0.04165213169907986</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06703750069118962</v>
+        <v>-0.06333152498619916</v>
       </c>
       <c r="C7">
-        <v>-0.08689383312282406</v>
+        <v>-0.001514431706975618</v>
       </c>
       <c r="D7">
-        <v>0.007079506572095771</v>
+        <v>0.04810176164855145</v>
       </c>
       <c r="E7">
-        <v>0.0180114182777532</v>
+        <v>0.01625679927594688</v>
       </c>
       <c r="F7">
-        <v>-0.02642337409442215</v>
+        <v>0.0578180157060803</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04062196980108244</v>
+        <v>-0.06096685963336858</v>
       </c>
       <c r="C8">
-        <v>-0.009059696342660808</v>
+        <v>0.01250820330438077</v>
       </c>
       <c r="D8">
-        <v>0.00233062697147478</v>
+        <v>0.0260026080522911</v>
       </c>
       <c r="E8">
-        <v>0.1103961006127563</v>
+        <v>0.008807789109426103</v>
       </c>
       <c r="F8">
-        <v>-0.03768764607929431</v>
+        <v>-0.0222555834745411</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08909838221806866</v>
+        <v>-0.07475646970968537</v>
       </c>
       <c r="C9">
-        <v>-0.0613629898161926</v>
+        <v>-0.01585510472894729</v>
       </c>
       <c r="D9">
-        <v>-0.01250722752799558</v>
+        <v>0.07046023790429945</v>
       </c>
       <c r="E9">
-        <v>0.13990261487537</v>
+        <v>0.01947272560474066</v>
       </c>
       <c r="F9">
-        <v>-0.013274897657838</v>
+        <v>0.06189293704907155</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1290208981012477</v>
+        <v>-0.08986003288574984</v>
       </c>
       <c r="C10">
-        <v>0.1836517185461885</v>
+        <v>-0.01190372719103305</v>
       </c>
       <c r="D10">
-        <v>0.0147023811587592</v>
+        <v>-0.1733069713802722</v>
       </c>
       <c r="E10">
-        <v>-0.05392558098613391</v>
+        <v>-0.03502612106204593</v>
       </c>
       <c r="F10">
-        <v>0.008580239439523699</v>
+        <v>-0.05234576954448304</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06892873082768367</v>
+        <v>-0.08996618911322089</v>
       </c>
       <c r="C11">
-        <v>-0.06133095160077057</v>
+        <v>-0.01513036854787427</v>
       </c>
       <c r="D11">
-        <v>-0.04133914150993043</v>
+        <v>0.1007820670109046</v>
       </c>
       <c r="E11">
-        <v>0.1117097874534172</v>
+        <v>0.04012964196999122</v>
       </c>
       <c r="F11">
-        <v>-0.01400428146880863</v>
+        <v>0.02852896536669772</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07346231589776306</v>
+        <v>-0.09559400898061607</v>
       </c>
       <c r="C12">
-        <v>-0.06891093837047339</v>
+        <v>-0.01282406075824031</v>
       </c>
       <c r="D12">
-        <v>-0.04808936161835772</v>
+        <v>0.1050466474388564</v>
       </c>
       <c r="E12">
-        <v>0.1320170925219751</v>
+        <v>0.03785126558968773</v>
       </c>
       <c r="F12">
-        <v>-0.006519928723059634</v>
+        <v>0.03233659823760446</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04970219234446821</v>
+        <v>-0.04495985822902999</v>
       </c>
       <c r="C13">
-        <v>-0.04264350069451931</v>
+        <v>-0.004990171375377475</v>
       </c>
       <c r="D13">
-        <v>0.02292375681945659</v>
+        <v>0.0315562849909005</v>
       </c>
       <c r="E13">
-        <v>0.06449776987167473</v>
+        <v>-0.01576109655963697</v>
       </c>
       <c r="F13">
-        <v>-0.04599111630530885</v>
+        <v>0.01997891082181331</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.04609410666184529</v>
+        <v>-0.02267200842825294</v>
       </c>
       <c r="C14">
-        <v>-0.03499268370654983</v>
+        <v>-0.01537876365212277</v>
       </c>
       <c r="D14">
-        <v>-0.01385741103338359</v>
+        <v>0.02635830995906504</v>
       </c>
       <c r="E14">
-        <v>0.06185523941727795</v>
+        <v>0.01543347822739724</v>
       </c>
       <c r="F14">
-        <v>-0.02418645778935698</v>
+        <v>0.02598075322217462</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.0302387544586463</v>
+        <v>-0.03431834797403076</v>
       </c>
       <c r="C15">
-        <v>-0.0173243343539255</v>
+        <v>-0.006899829927591947</v>
       </c>
       <c r="D15">
-        <v>0.06329528258696178</v>
+        <v>0.03169826140717509</v>
       </c>
       <c r="E15">
-        <v>0.005766940970498143</v>
+        <v>0.004336918323587786</v>
       </c>
       <c r="F15">
-        <v>0.003933010597430296</v>
+        <v>0.0319535245735762</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08031258073270936</v>
+        <v>-0.07783284851416403</v>
       </c>
       <c r="C16">
-        <v>-0.07873591904365065</v>
+        <v>-0.006950029686734945</v>
       </c>
       <c r="D16">
-        <v>-0.03411201621272065</v>
+        <v>0.1037690204644352</v>
       </c>
       <c r="E16">
-        <v>0.1129518272629044</v>
+        <v>0.05607277867111286</v>
       </c>
       <c r="F16">
-        <v>-0.005213134875621654</v>
+        <v>0.03662653130007665</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01582175175346181</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004149357199759884</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.025976843521339</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01009911321204269</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0311741020862036</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0430647513593612</v>
+        <v>-0.0637595910374992</v>
       </c>
       <c r="C20">
-        <v>-0.02656056870148928</v>
+        <v>-0.004639274555956322</v>
       </c>
       <c r="D20">
-        <v>0.02749417383247839</v>
+        <v>0.05602808790849317</v>
       </c>
       <c r="E20">
-        <v>0.05947220527017705</v>
+        <v>0.04775688458038645</v>
       </c>
       <c r="F20">
-        <v>-0.004535974389862592</v>
+        <v>0.03092671555798973</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03226770636334532</v>
+        <v>-0.03948985888066924</v>
       </c>
       <c r="C21">
-        <v>-0.01590400511133797</v>
+        <v>-0.008665371617102947</v>
       </c>
       <c r="D21">
-        <v>-0.004540091248712646</v>
+        <v>0.02986372240094072</v>
       </c>
       <c r="E21">
-        <v>0.05027250558640031</v>
+        <v>-0.01676380096781724</v>
       </c>
       <c r="F21">
-        <v>0.006170651153172529</v>
+        <v>-0.01748010929926995</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05354731329259668</v>
+        <v>-0.04296491360440651</v>
       </c>
       <c r="C22">
-        <v>-0.0107626125590966</v>
+        <v>-0.0005788654152057839</v>
       </c>
       <c r="D22">
-        <v>0.655490395137754</v>
+        <v>-0.001947037727545717</v>
       </c>
       <c r="E22">
-        <v>-0.01266631269683645</v>
+        <v>0.03457210111271311</v>
       </c>
       <c r="F22">
-        <v>0.005360566873398728</v>
+        <v>-0.02754380636297968</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05413687588507401</v>
+        <v>-0.04300287600695494</v>
       </c>
       <c r="C23">
-        <v>-0.01185067884550376</v>
+        <v>-0.000602460925896564</v>
       </c>
       <c r="D23">
-        <v>0.6576747243824147</v>
+        <v>-0.001767622233426766</v>
       </c>
       <c r="E23">
-        <v>-0.007233831107538875</v>
+        <v>0.03493628890932013</v>
       </c>
       <c r="F23">
-        <v>0.004119905007295207</v>
+        <v>-0.0269599338630087</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0760593427161373</v>
+        <v>-0.08322633767853949</v>
       </c>
       <c r="C24">
-        <v>-0.07272675368513699</v>
+        <v>-0.006755046239665032</v>
       </c>
       <c r="D24">
-        <v>-0.02908616326295132</v>
+        <v>0.1067678489342259</v>
       </c>
       <c r="E24">
-        <v>0.1120996777163483</v>
+        <v>0.04400155106002754</v>
       </c>
       <c r="F24">
-        <v>0.001597006278730311</v>
+        <v>0.02895004855287364</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0759007719397003</v>
+        <v>-0.08762844832092848</v>
       </c>
       <c r="C25">
-        <v>-0.05458487721834761</v>
+        <v>-0.009008405678048434</v>
       </c>
       <c r="D25">
-        <v>-0.04724161502050203</v>
+        <v>0.09202141164769187</v>
       </c>
       <c r="E25">
-        <v>0.118113827862274</v>
+        <v>0.02554297546033539</v>
       </c>
       <c r="F25">
-        <v>-0.0009276662886021914</v>
+        <v>0.03853973822307828</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04046551827357082</v>
+        <v>-0.05779780678591723</v>
       </c>
       <c r="C26">
-        <v>-0.02297480344758482</v>
+        <v>-0.01624953141508327</v>
       </c>
       <c r="D26">
-        <v>0.01718985895640772</v>
+        <v>0.02248529509981728</v>
       </c>
       <c r="E26">
-        <v>0.08150782977459534</v>
+        <v>0.02266424540100614</v>
       </c>
       <c r="F26">
-        <v>0.03743049842700464</v>
+        <v>0.001669984004404941</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1474776198335346</v>
+        <v>-0.1352301246759367</v>
       </c>
       <c r="C28">
-        <v>0.276258271891717</v>
+        <v>-0.008804606579418877</v>
       </c>
       <c r="D28">
-        <v>-0.008569807261776472</v>
+        <v>-0.2809038398534295</v>
       </c>
       <c r="E28">
-        <v>0.02094666195125287</v>
+        <v>-0.06985077448860889</v>
       </c>
       <c r="F28">
-        <v>-0.02414722379452527</v>
+        <v>0.04557143057540402</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.04361188818007677</v>
+        <v>-0.02790210473626726</v>
       </c>
       <c r="C29">
-        <v>-0.03290982568077071</v>
+        <v>-0.009680959766366015</v>
       </c>
       <c r="D29">
-        <v>-0.01573764131576286</v>
+        <v>0.0247056695390175</v>
       </c>
       <c r="E29">
-        <v>0.05863866061267938</v>
+        <v>0.007893480209436516</v>
       </c>
       <c r="F29">
-        <v>-0.03227649387024485</v>
+        <v>-0.006966208276865954</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09222606461895433</v>
+        <v>-0.06816920711474209</v>
       </c>
       <c r="C30">
-        <v>-0.06079346051156552</v>
+        <v>-0.009596395660602297</v>
       </c>
       <c r="D30">
-        <v>-0.01654793664987129</v>
+        <v>0.06439608205949265</v>
       </c>
       <c r="E30">
-        <v>0.2646972338752905</v>
+        <v>0.01886680514760219</v>
       </c>
       <c r="F30">
-        <v>-0.0115848506543138</v>
+        <v>0.1236924764845357</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02632703074453681</v>
+        <v>-0.04904517939085164</v>
       </c>
       <c r="C31">
-        <v>-0.05382380294697472</v>
+        <v>-0.01547385312002426</v>
       </c>
       <c r="D31">
-        <v>0.005345216470085981</v>
+        <v>0.02839059414642337</v>
       </c>
       <c r="E31">
-        <v>0.04018168054067293</v>
+        <v>0.02609087052218913</v>
       </c>
       <c r="F31">
-        <v>-0.002665133748407346</v>
+        <v>-0.002255573761269156</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0590528349082767</v>
+        <v>-0.04906854537271493</v>
       </c>
       <c r="C32">
-        <v>-0.004989680949266154</v>
+        <v>-0.001395380235962613</v>
       </c>
       <c r="D32">
-        <v>-0.03889458455664668</v>
+        <v>0.01983773965628092</v>
       </c>
       <c r="E32">
-        <v>0.08534443011343372</v>
+        <v>0.02257830639833827</v>
       </c>
       <c r="F32">
-        <v>0.006112136648751303</v>
+        <v>0.005175649296507248</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09665371454534516</v>
+        <v>-0.09348876815604579</v>
       </c>
       <c r="C33">
-        <v>-0.07061126544322215</v>
+        <v>-0.01211208395276035</v>
       </c>
       <c r="D33">
-        <v>-0.01886669617721094</v>
+        <v>0.0823439487672467</v>
       </c>
       <c r="E33">
-        <v>0.09046349162344831</v>
+        <v>0.04353756558621794</v>
       </c>
       <c r="F33">
-        <v>0.03731865973882315</v>
+        <v>0.04444254097308316</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0671751646522466</v>
+        <v>-0.07046749821159</v>
       </c>
       <c r="C34">
-        <v>-0.05807456436414414</v>
+        <v>-0.01437146721063587</v>
       </c>
       <c r="D34">
-        <v>-0.04706783035830335</v>
+        <v>0.08615812509816891</v>
       </c>
       <c r="E34">
-        <v>0.09359756017228095</v>
+        <v>0.02556571282577524</v>
       </c>
       <c r="F34">
-        <v>0.008375314128796872</v>
+        <v>0.0540514993423887</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02476088892533872</v>
+        <v>-0.024378500680505</v>
       </c>
       <c r="C35">
-        <v>-0.02704972772217961</v>
+        <v>-0.002467765166832915</v>
       </c>
       <c r="D35">
-        <v>-0.01018487714014954</v>
+        <v>0.009951112041640063</v>
       </c>
       <c r="E35">
-        <v>0.02114197856128803</v>
+        <v>0.01249164824323174</v>
       </c>
       <c r="F35">
-        <v>0.005491153818595155</v>
+        <v>0.01325893247311193</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.03196851040223501</v>
+        <v>-0.02695685792824549</v>
       </c>
       <c r="C36">
-        <v>-0.02090391407191038</v>
+        <v>-0.007489333842553397</v>
       </c>
       <c r="D36">
-        <v>0.01374061956739382</v>
+        <v>0.03810399146213738</v>
       </c>
       <c r="E36">
-        <v>0.08015004078998833</v>
+        <v>0.01619137088712072</v>
       </c>
       <c r="F36">
-        <v>0.002590081750913414</v>
+        <v>0.01315148876293137</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02998074777185331</v>
+        <v>-0.003361966956967005</v>
       </c>
       <c r="C38">
-        <v>-0.05952074885509841</v>
+        <v>-0.0006597873371192305</v>
       </c>
       <c r="D38">
-        <v>0.01875927625045229</v>
+        <v>0.004073376854399032</v>
       </c>
       <c r="E38">
-        <v>-0.1036543516877232</v>
+        <v>0.00491754658474965</v>
       </c>
       <c r="F38">
-        <v>-0.02903563949891452</v>
+        <v>-0.003834551583444225</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09366870447594737</v>
+        <v>-0.113707580292499</v>
       </c>
       <c r="C39">
-        <v>-0.07831209914668402</v>
+        <v>-0.02125240919656552</v>
       </c>
       <c r="D39">
-        <v>-0.11307031955396</v>
+        <v>0.1390195460469983</v>
       </c>
       <c r="E39">
-        <v>0.1388850994535313</v>
+        <v>0.04887025305150155</v>
       </c>
       <c r="F39">
-        <v>-0.006074448973930132</v>
+        <v>0.0404120210462485</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02584721294542587</v>
+        <v>-0.03829702775075973</v>
       </c>
       <c r="C40">
-        <v>-0.0691384294195421</v>
+        <v>-0.008318556830418038</v>
       </c>
       <c r="D40">
-        <v>0.01475425085201833</v>
+        <v>0.02113130527890844</v>
       </c>
       <c r="E40">
-        <v>0.08341944870866705</v>
+        <v>0.001939500063199136</v>
       </c>
       <c r="F40">
-        <v>-0.01163068837959056</v>
+        <v>-0.01776002945146265</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03249443106512663</v>
+        <v>-0.02619224839501198</v>
       </c>
       <c r="C41">
-        <v>-0.02978669365633129</v>
+        <v>-0.006702612985170153</v>
       </c>
       <c r="D41">
-        <v>-0.02707594867063331</v>
+        <v>0.01275193784541839</v>
       </c>
       <c r="E41">
-        <v>-0.001757312047203654</v>
+        <v>0.01175377042182758</v>
       </c>
       <c r="F41">
-        <v>-0.003323613606614973</v>
+        <v>-0.01249782050283646</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04981928513025419</v>
+        <v>-0.04348005318405689</v>
       </c>
       <c r="C43">
-        <v>-0.05463112567227444</v>
+        <v>-0.007489615111162144</v>
       </c>
       <c r="D43">
-        <v>0.005960333587068281</v>
+        <v>0.02110501335310272</v>
       </c>
       <c r="E43">
-        <v>0.01550622611874515</v>
+        <v>0.02583819680285047</v>
       </c>
       <c r="F43">
-        <v>-0.01612694331147642</v>
+        <v>-0.01098282837608389</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.100404986995467</v>
+        <v>-0.07639755277027808</v>
       </c>
       <c r="C44">
-        <v>-0.07929125400268242</v>
+        <v>-0.02579442149254845</v>
       </c>
       <c r="D44">
-        <v>0.06377595263288123</v>
+        <v>0.0839792321718785</v>
       </c>
       <c r="E44">
-        <v>0.17792893017612</v>
+        <v>0.06151775461296129</v>
       </c>
       <c r="F44">
-        <v>-0.08526389074493476</v>
+        <v>0.1835686861400915</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.04842260046350132</v>
+        <v>-0.02499542671458885</v>
       </c>
       <c r="C46">
-        <v>-0.04542750398413951</v>
+        <v>-0.004069613772450401</v>
       </c>
       <c r="D46">
-        <v>0.03803048208912319</v>
+        <v>0.009609202751035831</v>
       </c>
       <c r="E46">
-        <v>0.02256726122257212</v>
+        <v>0.02142983573931424</v>
       </c>
       <c r="F46">
-        <v>0.003153961463836609</v>
+        <v>-0.00515536348092365</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05053495963059323</v>
+        <v>-0.05320448511844254</v>
       </c>
       <c r="C47">
-        <v>-0.04745535718937965</v>
+        <v>-0.003422888731870072</v>
       </c>
       <c r="D47">
-        <v>0.006976999825878142</v>
+        <v>0.01468364990620426</v>
       </c>
       <c r="E47">
-        <v>0.02226913173261014</v>
+        <v>0.02281540065986878</v>
       </c>
       <c r="F47">
-        <v>0.01933678987090055</v>
+        <v>-0.04714195370419075</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04530859484839732</v>
+        <v>-0.04866845193785527</v>
       </c>
       <c r="C48">
-        <v>-0.01622972613716116</v>
+        <v>-0.003942038220830394</v>
       </c>
       <c r="D48">
-        <v>-0.00924723641098337</v>
+        <v>0.03977236663841325</v>
       </c>
       <c r="E48">
-        <v>0.08409352271673627</v>
+        <v>-0.009524581081556297</v>
       </c>
       <c r="F48">
-        <v>0.03361105873871645</v>
+        <v>0.01837242539526247</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2375360379969625</v>
+        <v>-0.2084352319663576</v>
       </c>
       <c r="C49">
-        <v>-0.06460033199086462</v>
+        <v>-0.0174449418924104</v>
       </c>
       <c r="D49">
-        <v>-0.03746578547123624</v>
+        <v>-0.007658761621341895</v>
       </c>
       <c r="E49">
-        <v>-0.3029318432594171</v>
+        <v>0.04619851673100596</v>
       </c>
       <c r="F49">
-        <v>0.02753206862575787</v>
+        <v>0.03410359595798645</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03609524192665702</v>
+        <v>-0.04906306813776215</v>
       </c>
       <c r="C50">
-        <v>-0.04819296289275223</v>
+        <v>-0.01180347514779364</v>
       </c>
       <c r="D50">
-        <v>-0.009271284216363963</v>
+        <v>0.02737669215189012</v>
       </c>
       <c r="E50">
-        <v>0.05916777004501527</v>
+        <v>0.02936973267982107</v>
       </c>
       <c r="F50">
-        <v>0.02508120244677816</v>
+        <v>0.005493892802426515</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0350094989464387</v>
+        <v>-0.003690375764068663</v>
       </c>
       <c r="C51">
-        <v>-0.005170053009177826</v>
+        <v>-0.0008539324289052417</v>
       </c>
       <c r="D51">
-        <v>-0.000136575158304526</v>
+        <v>-0.001455715509271232</v>
       </c>
       <c r="E51">
-        <v>-0.0590467415448626</v>
+        <v>0.001794841180466974</v>
       </c>
       <c r="F51">
-        <v>-0.06055305520103241</v>
+        <v>0.004005223507373607</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0005343700785730372</v>
+        <v>-0.1400918777363146</v>
       </c>
       <c r="C52">
-        <v>-0.002198845073897743</v>
+        <v>-0.01251978361589875</v>
       </c>
       <c r="D52">
-        <v>-0.01918009298194745</v>
+        <v>0.05453931181840829</v>
       </c>
       <c r="E52">
-        <v>0.005505287541056371</v>
+        <v>0.01337288318071981</v>
       </c>
       <c r="F52">
-        <v>0.0003601231063775988</v>
+        <v>0.02947053866400487</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1428664331785825</v>
+        <v>-0.1716876969358787</v>
       </c>
       <c r="C53">
-        <v>-0.06111547158284489</v>
+        <v>-0.01509546444955865</v>
       </c>
       <c r="D53">
-        <v>0.007045666549158648</v>
+        <v>0.02276873446324862</v>
       </c>
       <c r="E53">
-        <v>-0.08631913508085041</v>
+        <v>0.03837606932671972</v>
       </c>
       <c r="F53">
-        <v>0.01028873105368591</v>
+        <v>0.05689886266826752</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05541274450005544</v>
+        <v>-0.02217385833666394</v>
       </c>
       <c r="C54">
-        <v>-0.02810605804529613</v>
+        <v>-0.01323416120153811</v>
       </c>
       <c r="D54">
-        <v>0.005137424562358488</v>
+        <v>0.02714555046264259</v>
       </c>
       <c r="E54">
-        <v>0.1299319360914865</v>
+        <v>0.0139594418271254</v>
       </c>
       <c r="F54">
-        <v>0.02966209994361864</v>
+        <v>0.001615250348867545</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08698321063790349</v>
+        <v>-0.1136835875779333</v>
       </c>
       <c r="C55">
-        <v>-0.05604531448784974</v>
+        <v>-0.0143819671260754</v>
       </c>
       <c r="D55">
-        <v>-0.03149039968273434</v>
+        <v>0.02004271605667774</v>
       </c>
       <c r="E55">
-        <v>-0.01450910053279028</v>
+        <v>0.02929723936535569</v>
       </c>
       <c r="F55">
-        <v>-0.02566192568044949</v>
+        <v>0.04760745768243051</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1298139261575457</v>
+        <v>-0.1758918941912806</v>
       </c>
       <c r="C56">
-        <v>-0.09248229866640315</v>
+        <v>-0.01201897853578843</v>
       </c>
       <c r="D56">
-        <v>-0.01280353882484721</v>
+        <v>0.02463260114325256</v>
       </c>
       <c r="E56">
-        <v>-0.0377451735240557</v>
+        <v>0.04283165224587101</v>
       </c>
       <c r="F56">
-        <v>-0.008525051247778017</v>
+        <v>0.0254698376545211</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03314129832853444</v>
+        <v>-0.04733565305491332</v>
       </c>
       <c r="C58">
-        <v>-0.03115558902318451</v>
+        <v>-0.004332744922421798</v>
       </c>
       <c r="D58">
-        <v>0.02927835593248515</v>
+        <v>0.0573671026141676</v>
       </c>
       <c r="E58">
-        <v>0.02590460688003351</v>
+        <v>0.01235561887016831</v>
       </c>
       <c r="F58">
-        <v>0.05863444480252347</v>
+        <v>-0.04298201536804631</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2104535975289301</v>
+        <v>-0.1686308137350519</v>
       </c>
       <c r="C59">
-        <v>0.2445227058096548</v>
+        <v>-0.01069552539026723</v>
       </c>
       <c r="D59">
-        <v>-0.04948827181734837</v>
+        <v>-0.2330466720369536</v>
       </c>
       <c r="E59">
-        <v>-0.02456300172114622</v>
+        <v>-0.04633591089153453</v>
       </c>
       <c r="F59">
-        <v>-0.0414467774044196</v>
+        <v>-0.03074655838018193</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2365160326191264</v>
+        <v>-0.2394234136931518</v>
       </c>
       <c r="C60">
-        <v>-0.1354180936344115</v>
+        <v>0.004369517158663038</v>
       </c>
       <c r="D60">
-        <v>-0.06196656899217676</v>
+        <v>0.05685412141936205</v>
       </c>
       <c r="E60">
-        <v>-0.1276684443078371</v>
+        <v>0.0144443590441197</v>
       </c>
       <c r="F60">
-        <v>-0.02371394400423356</v>
+        <v>-0.04769727154976096</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09027695383451834</v>
+        <v>-0.0882087139552574</v>
       </c>
       <c r="C61">
-        <v>-0.06662753461839836</v>
+        <v>-0.01615431451855213</v>
       </c>
       <c r="D61">
-        <v>-0.06665072702570346</v>
+        <v>0.09828700151212863</v>
       </c>
       <c r="E61">
-        <v>0.1299028213925993</v>
+        <v>0.03198052033567492</v>
       </c>
       <c r="F61">
-        <v>-0.04199087564921242</v>
+        <v>0.02572248297783369</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1366314407315372</v>
+        <v>-0.1683176848117828</v>
       </c>
       <c r="C62">
-        <v>-0.0851923814907284</v>
+        <v>-0.01643649186895351</v>
       </c>
       <c r="D62">
-        <v>-0.008922401975459167</v>
+        <v>0.01998893724792022</v>
       </c>
       <c r="E62">
-        <v>-0.0332742399232203</v>
+        <v>0.03701306640952029</v>
       </c>
       <c r="F62">
-        <v>0.03528196250060566</v>
+        <v>0.01280415361758393</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0441258548324948</v>
+        <v>-0.04370337072527972</v>
       </c>
       <c r="C63">
-        <v>-0.01865306737964227</v>
+        <v>-0.004963241231383028</v>
       </c>
       <c r="D63">
-        <v>-0.006785606305424122</v>
+        <v>0.04256605835792293</v>
       </c>
       <c r="E63">
-        <v>0.06686159762914169</v>
+        <v>0.01254305375667476</v>
       </c>
       <c r="F63">
-        <v>0.03486197988922857</v>
+        <v>0.01310718253508932</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09970240375132224</v>
+        <v>-0.1121171067206092</v>
       </c>
       <c r="C64">
-        <v>-0.05926129626201895</v>
+        <v>-0.0122738884639283</v>
       </c>
       <c r="D64">
-        <v>-0.006798689800246963</v>
+        <v>0.03950965658566451</v>
       </c>
       <c r="E64">
-        <v>0.05328396140238396</v>
+        <v>0.01959880879338029</v>
       </c>
       <c r="F64">
-        <v>-0.04758124913526031</v>
+        <v>0.01721014480459061</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1196339295585061</v>
+        <v>-0.1398012334277658</v>
       </c>
       <c r="C65">
-        <v>-0.02606771602745466</v>
+        <v>-0.03003036400345123</v>
       </c>
       <c r="D65">
-        <v>-0.02136584415343468</v>
+        <v>-0.0401164233092112</v>
       </c>
       <c r="E65">
-        <v>0.0818933321575108</v>
+        <v>0.005440456608733684</v>
       </c>
       <c r="F65">
-        <v>0.06775119723519429</v>
+        <v>0.04357648659925394</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1102904172900424</v>
+        <v>-0.1365431603632815</v>
       </c>
       <c r="C66">
-        <v>-0.1148109518433133</v>
+        <v>-0.01887451975968781</v>
       </c>
       <c r="D66">
-        <v>-0.1120738312997365</v>
+        <v>0.1250332590752827</v>
       </c>
       <c r="E66">
-        <v>0.1271094401994552</v>
+        <v>0.05909751654583395</v>
       </c>
       <c r="F66">
-        <v>0.01171910034405633</v>
+        <v>0.04430684745716162</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.09025893211254107</v>
+        <v>-0.06639455777948702</v>
       </c>
       <c r="C67">
-        <v>-0.08235205721976542</v>
+        <v>-0.004722309311638322</v>
       </c>
       <c r="D67">
-        <v>0.02474065981335839</v>
+        <v>0.05681580444149398</v>
       </c>
       <c r="E67">
-        <v>-0.07533026076484851</v>
+        <v>0.02045239234440108</v>
       </c>
       <c r="F67">
-        <v>-0.08302254108497646</v>
+        <v>-0.04298746183289387</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1286096543046227</v>
+        <v>-0.1092400649550482</v>
       </c>
       <c r="C68">
-        <v>0.2737158964048751</v>
+        <v>-0.01985664293285422</v>
       </c>
       <c r="D68">
-        <v>-0.02433678969764955</v>
+        <v>-0.2792014950045946</v>
       </c>
       <c r="E68">
-        <v>0.03395031113699763</v>
+        <v>-0.08678601197493593</v>
       </c>
       <c r="F68">
-        <v>-0.0008747190525816432</v>
+        <v>0.04851204470981383</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04360871678436176</v>
+        <v>-0.04065575537995675</v>
       </c>
       <c r="C69">
-        <v>-0.02198308693396466</v>
+        <v>-0.0009769467145143184</v>
       </c>
       <c r="D69">
-        <v>0.01490408363428227</v>
+        <v>0.01095457071285174</v>
       </c>
       <c r="E69">
-        <v>-0.008477360018495961</v>
+        <v>0.02593930340786956</v>
       </c>
       <c r="F69">
-        <v>0.03488373795929412</v>
+        <v>-0.01622252764219672</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06464482369773973</v>
+        <v>-0.06609248863107017</v>
       </c>
       <c r="C70">
-        <v>-0.0593618330902673</v>
+        <v>0.02660032656082249</v>
       </c>
       <c r="D70">
-        <v>-0.05876600251264315</v>
+        <v>0.001185813907916802</v>
       </c>
       <c r="E70">
-        <v>-0.02951827163672756</v>
+        <v>-0.04556305630857703</v>
       </c>
       <c r="F70">
-        <v>0.009000566791250877</v>
+        <v>-0.346103208884643</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1468838811895007</v>
+        <v>-0.1276690007292433</v>
       </c>
       <c r="C71">
-        <v>0.2759995413148721</v>
+        <v>-0.02298816879425892</v>
       </c>
       <c r="D71">
-        <v>-0.01502077612154723</v>
+        <v>-0.2935916824021358</v>
       </c>
       <c r="E71">
-        <v>0.04793237275919162</v>
+        <v>-0.09540105702299047</v>
       </c>
       <c r="F71">
-        <v>-0.01807502665368243</v>
+        <v>0.05063846249159901</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1249884985205966</v>
+        <v>-0.1382547060460179</v>
       </c>
       <c r="C72">
-        <v>-0.03676382568367369</v>
+        <v>-0.02416269456939372</v>
       </c>
       <c r="D72">
-        <v>-0.01569122775406962</v>
+        <v>0.01177095976058789</v>
       </c>
       <c r="E72">
-        <v>0.02367711892384257</v>
+        <v>0.04387603372286532</v>
       </c>
       <c r="F72">
-        <v>0.07828868629217506</v>
+        <v>0.02572123466620153</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.212275172931592</v>
+        <v>-0.2101060591040132</v>
       </c>
       <c r="C73">
-        <v>-0.1351553798153101</v>
+        <v>-0.01192162539341734</v>
       </c>
       <c r="D73">
-        <v>-0.1233681214240065</v>
+        <v>0.028138994845749</v>
       </c>
       <c r="E73">
-        <v>-0.4699107374396418</v>
+        <v>0.07558032306274279</v>
       </c>
       <c r="F73">
-        <v>-0.1259942237928241</v>
+        <v>0.02292311081832011</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08551633236667615</v>
+        <v>-0.09363456255054492</v>
       </c>
       <c r="C74">
-        <v>-0.0887016738547977</v>
+        <v>-0.01160492874205711</v>
       </c>
       <c r="D74">
-        <v>-8.237089439221099e-06</v>
+        <v>0.03166302725601293</v>
       </c>
       <c r="E74">
-        <v>-0.04198445737827093</v>
+        <v>0.05247438254755698</v>
       </c>
       <c r="F74">
-        <v>0.002117874524837814</v>
+        <v>0.04087908629365454</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08463138928606352</v>
+        <v>-0.1295861508884981</v>
       </c>
       <c r="C75">
-        <v>-0.06420557456531861</v>
+        <v>-0.02588022728743339</v>
       </c>
       <c r="D75">
-        <v>-0.006231917338495045</v>
+        <v>0.04083445210348383</v>
       </c>
       <c r="E75">
-        <v>-0.01837183594322211</v>
+        <v>0.05850364563626896</v>
       </c>
       <c r="F75">
-        <v>0.02965798584509096</v>
+        <v>0.005208452302362057</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.08720605521657204</v>
+        <v>-0.009622203941269935</v>
       </c>
       <c r="C76">
-        <v>-0.08500190092972358</v>
+        <v>-0.002167240565175467</v>
       </c>
       <c r="D76">
-        <v>0.008090986811015388</v>
+        <v>0.004509767427862616</v>
       </c>
       <c r="E76">
-        <v>-0.06179091718885237</v>
+        <v>0.01019627420852535</v>
       </c>
       <c r="F76">
-        <v>-0.05530394429066606</v>
+        <v>0.003244179126844709</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06874162618202656</v>
+        <v>-0.0822363977364071</v>
       </c>
       <c r="C77">
-        <v>-0.006097917167488903</v>
+        <v>-0.01341012276107719</v>
       </c>
       <c r="D77">
-        <v>-0.03725972593679262</v>
+        <v>0.09247914201294323</v>
       </c>
       <c r="E77">
-        <v>0.2908255213157695</v>
+        <v>0.03097073157175009</v>
       </c>
       <c r="F77">
-        <v>-0.1755761989770561</v>
+        <v>0.0434054344825407</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.180803689336184</v>
+        <v>-0.1129421398820995</v>
       </c>
       <c r="C78">
-        <v>-0.1142542897731996</v>
+        <v>-0.04612457114204402</v>
       </c>
       <c r="D78">
-        <v>0.1801763424554969</v>
+        <v>0.1094908692415822</v>
       </c>
       <c r="E78">
-        <v>0.1459024105092281</v>
+        <v>0.08797145667677707</v>
       </c>
       <c r="F78">
-        <v>-0.2500078756634048</v>
+        <v>0.08234495711665778</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1299686590695711</v>
+        <v>-0.1619490261810558</v>
       </c>
       <c r="C79">
-        <v>-0.08542303551981961</v>
+        <v>-0.01977353670771835</v>
       </c>
       <c r="D79">
-        <v>0.005900171761735295</v>
+        <v>0.02655585272875954</v>
       </c>
       <c r="E79">
-        <v>-0.001207372067504471</v>
+        <v>0.04840089578664392</v>
       </c>
       <c r="F79">
-        <v>-0.004295052513831454</v>
+        <v>0.004638126267224795</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04803319648370451</v>
+        <v>-0.08173840720857088</v>
       </c>
       <c r="C80">
-        <v>-0.03722626672084155</v>
+        <v>0.0007447072345807209</v>
       </c>
       <c r="D80">
-        <v>-0.07020192484352786</v>
+        <v>0.04931805698899396</v>
       </c>
       <c r="E80">
-        <v>-0.01171621198335804</v>
+        <v>0.02480990527018681</v>
       </c>
       <c r="F80">
-        <v>0.03165562619938266</v>
+        <v>-0.01174386725512913</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1203160587414441</v>
+        <v>-0.1217773286321493</v>
       </c>
       <c r="C81">
-        <v>-0.05707471211866186</v>
+        <v>-0.02952402783144499</v>
       </c>
       <c r="D81">
-        <v>0.005608833352467595</v>
+        <v>0.03174410429930756</v>
       </c>
       <c r="E81">
-        <v>0.03292332906460894</v>
+        <v>0.0594203326981131</v>
       </c>
       <c r="F81">
-        <v>0.04663387086950686</v>
+        <v>-0.006772682675549218</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1167266823834518</v>
+        <v>-0.161898753040773</v>
       </c>
       <c r="C82">
-        <v>-0.06110255940837175</v>
+        <v>-0.02011880490881885</v>
       </c>
       <c r="D82">
-        <v>-0.00295422170699582</v>
+        <v>0.02519878632107257</v>
       </c>
       <c r="E82">
-        <v>-0.03912000174757754</v>
+        <v>0.0352936740245846</v>
       </c>
       <c r="F82">
-        <v>0.06999398197327511</v>
+        <v>0.05023254169431079</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08525008558568234</v>
+        <v>-0.06830963934138903</v>
       </c>
       <c r="C83">
-        <v>-0.07764749425956348</v>
+        <v>-0.005195420173874789</v>
       </c>
       <c r="D83">
-        <v>-0.0009295480303303433</v>
+        <v>0.04102525159750834</v>
       </c>
       <c r="E83">
-        <v>0.001514777795244807</v>
+        <v>0.000914341580829179</v>
       </c>
       <c r="F83">
-        <v>-0.009054781455155666</v>
+        <v>-0.03096888203142178</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.03431238212703285</v>
+        <v>-0.06049115996597</v>
       </c>
       <c r="C84">
-        <v>0.05497934922841118</v>
+        <v>-0.01251252876786287</v>
       </c>
       <c r="D84">
-        <v>-0.03026593698837027</v>
+        <v>0.05692948715518992</v>
       </c>
       <c r="E84">
-        <v>0.1017590747839885</v>
+        <v>-0.002973773050539639</v>
       </c>
       <c r="F84">
-        <v>-0.03663035966105822</v>
+        <v>0.01312158864483104</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1206479295642575</v>
+        <v>-0.1370690999236719</v>
       </c>
       <c r="C85">
-        <v>-0.0606760022467499</v>
+        <v>-0.02508283529319124</v>
       </c>
       <c r="D85">
-        <v>-0.0101832332391403</v>
+        <v>0.02487279631353893</v>
       </c>
       <c r="E85">
-        <v>-0.02140783407935921</v>
+        <v>0.04083775329455001</v>
       </c>
       <c r="F85">
-        <v>0.003970925589644412</v>
+        <v>0.03959483874404843</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09276587572902738</v>
+        <v>-0.09987519984797981</v>
       </c>
       <c r="C86">
-        <v>-0.01863105906649495</v>
+        <v>0.006477300804099186</v>
       </c>
       <c r="D86">
-        <v>0.01915418258124165</v>
+        <v>0.01018303985572381</v>
       </c>
       <c r="E86">
-        <v>0.03417356463452566</v>
+        <v>0.130387349172442</v>
       </c>
       <c r="F86">
-        <v>-0.08235344193363335</v>
+        <v>-0.8251045253376311</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1228388965965442</v>
+        <v>-0.1030638627381882</v>
       </c>
       <c r="C87">
-        <v>-0.06460004159232269</v>
+        <v>-0.02670274676214578</v>
       </c>
       <c r="D87">
-        <v>0.01675286178112989</v>
+        <v>0.06487486523951305</v>
       </c>
       <c r="E87">
-        <v>0.07987910929915262</v>
+        <v>-0.05396698170464426</v>
       </c>
       <c r="F87">
-        <v>-0.018759405250051</v>
+        <v>0.0911519864513754</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06402227845094777</v>
+        <v>-0.06107753354578922</v>
       </c>
       <c r="C88">
-        <v>-0.06849567280641476</v>
+        <v>-0.003967728105750308</v>
       </c>
       <c r="D88">
-        <v>-0.03560531331686227</v>
+        <v>0.05818056509376177</v>
       </c>
       <c r="E88">
-        <v>0.02445518273817031</v>
+        <v>0.02393097003663805</v>
       </c>
       <c r="F88">
-        <v>-0.01388925157684164</v>
+        <v>0.00875146389927404</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2424855748843612</v>
+        <v>-0.1310288890937201</v>
       </c>
       <c r="C89">
-        <v>0.367218153247493</v>
+        <v>-0.00271215059658935</v>
       </c>
       <c r="D89">
-        <v>0.03425619964186358</v>
+        <v>-0.2858325911835998</v>
       </c>
       <c r="E89">
-        <v>-0.01914146068629991</v>
+        <v>-0.09460664153933285</v>
       </c>
       <c r="F89">
-        <v>-0.06589845511115537</v>
+        <v>0.03390714841420833</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1565672545543904</v>
+        <v>-0.1391391793055314</v>
       </c>
       <c r="C90">
-        <v>0.2550797894649704</v>
+        <v>-0.01936694127787585</v>
       </c>
       <c r="D90">
-        <v>-0.01907517459061201</v>
+        <v>-0.2813845392552025</v>
       </c>
       <c r="E90">
-        <v>0.009358665324595955</v>
+        <v>-0.1083082342199268</v>
       </c>
       <c r="F90">
-        <v>-0.02496615751372538</v>
+        <v>0.03836174426215874</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.06885129267626872</v>
+        <v>-0.1157232124463788</v>
       </c>
       <c r="C91">
-        <v>-0.06090259421118497</v>
+        <v>-0.01550644335423895</v>
       </c>
       <c r="D91">
-        <v>0.01073804219923381</v>
+        <v>0.008066133409639485</v>
       </c>
       <c r="E91">
-        <v>-0.005579286350961541</v>
+        <v>0.05907165739987218</v>
       </c>
       <c r="F91">
-        <v>-0.005585548914154561</v>
+        <v>-0.03137746668735732</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1751873920822791</v>
+        <v>-0.1422610193946665</v>
       </c>
       <c r="C92">
-        <v>0.2955834378567846</v>
+        <v>-0.009795266817227149</v>
       </c>
       <c r="D92">
-        <v>0.0173501953815016</v>
+        <v>-0.3153678633695339</v>
       </c>
       <c r="E92">
-        <v>0.03270892267521477</v>
+        <v>-0.1032588827083337</v>
       </c>
       <c r="F92">
-        <v>-0.05490867564222009</v>
+        <v>0.03047419610083552</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1742915277564246</v>
+        <v>-0.1434951284248821</v>
       </c>
       <c r="C93">
-        <v>0.3017877480795457</v>
+        <v>-0.01517807385195763</v>
       </c>
       <c r="D93">
-        <v>-0.05157316733227509</v>
+        <v>-0.2816481634212674</v>
       </c>
       <c r="E93">
-        <v>0.01518115335169763</v>
+        <v>-0.07252240332805557</v>
       </c>
       <c r="F93">
-        <v>0.01618366367899526</v>
+        <v>0.02900336539978677</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1133027066520943</v>
+        <v>-0.1332757948390759</v>
       </c>
       <c r="C94">
-        <v>-0.08333110161210755</v>
+        <v>-0.023626291759219</v>
       </c>
       <c r="D94">
-        <v>0.006033455775231483</v>
+        <v>0.05393905620829292</v>
       </c>
       <c r="E94">
-        <v>-0.05391880784788849</v>
+        <v>0.06215491917306798</v>
       </c>
       <c r="F94">
-        <v>0.003913570285948712</v>
+        <v>0.02383401136163697</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1523759915195158</v>
+        <v>-0.1290730521298022</v>
       </c>
       <c r="C95">
-        <v>-0.06120017110288554</v>
+        <v>-0.007646577161196935</v>
       </c>
       <c r="D95">
-        <v>0.01547033485617849</v>
+        <v>0.08008709812511559</v>
       </c>
       <c r="E95">
-        <v>0.04767451797029171</v>
+        <v>0.03936649036255872</v>
       </c>
       <c r="F95">
-        <v>3.798975833162066e-05</v>
+        <v>-0.01306831460813425</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09544944656762851</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9893441718032892</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.007483445964096801</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06017746426865925</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05126836659189991</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1130192497814089</v>
+        <v>-0.1865664423353211</v>
       </c>
       <c r="C97">
-        <v>0.01436950937459348</v>
+        <v>0.01334793469374077</v>
       </c>
       <c r="D97">
-        <v>0.02518696565378928</v>
+        <v>-0.0070024558558532</v>
       </c>
       <c r="E97">
-        <v>0.08935456754347562</v>
+        <v>0.01225074841303723</v>
       </c>
       <c r="F97">
-        <v>0.8863056379314195</v>
+        <v>-0.1725834971776001</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2526114936840235</v>
+        <v>-0.2073309734242674</v>
       </c>
       <c r="C98">
-        <v>-0.1236852118502046</v>
+        <v>-0.007770734049999434</v>
       </c>
       <c r="D98">
-        <v>0.0460504800182752</v>
+        <v>0.01692313649457705</v>
       </c>
       <c r="E98">
-        <v>-0.2980718581710249</v>
+        <v>-0.08392614452480839</v>
       </c>
       <c r="F98">
-        <v>0.1012305831087937</v>
+        <v>-0.1417126007880611</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.07759259715983152</v>
+        <v>-0.05871098690483475</v>
       </c>
       <c r="C99">
-        <v>-0.05850619335119008</v>
+        <v>0.002672516867426274</v>
       </c>
       <c r="D99">
-        <v>0.01452705098900954</v>
+        <v>0.02861571514028849</v>
       </c>
       <c r="E99">
-        <v>-0.04140403080510497</v>
+        <v>0.02272712508300958</v>
       </c>
       <c r="F99">
-        <v>-0.03591687579119018</v>
+        <v>0.004404433380643366</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1231565816550859</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04552651068469812</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.329753567166114</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9050245194833537</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.0576899135957021</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04377170470280551</v>
+        <v>-0.02777481888310324</v>
       </c>
       <c r="C101">
-        <v>-0.0324242320652995</v>
+        <v>-0.00959204282372755</v>
       </c>
       <c r="D101">
-        <v>-0.01582255649484532</v>
+        <v>0.02437503313849456</v>
       </c>
       <c r="E101">
-        <v>0.05684345783094739</v>
+        <v>0.008070189790927284</v>
       </c>
       <c r="F101">
-        <v>-0.03518076536475792</v>
+        <v>-0.009019609644963251</v>
       </c>
     </row>
     <row r="102" spans="1:6">
